--- a/back/uploads/毕设测试数据1.xlsx
+++ b/back/uploads/毕设测试数据1.xlsx
@@ -51,14 +51,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,148 +507,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1004,43 +997,85 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4">
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>2024</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>130</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>79</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>55</v>
       </c>
     </row>
